--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st01.xlsx
@@ -664,7 +664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Central Kazimierz, Kawalerielki Alliance, “The Grand Knight Territory” Kawalerielki
+    <t xml:space="preserve">Central Kazimierz, Kawalerielki Alliance, 'The Grand Knight Territory' Kawalerielki
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I’m not blind, which is why I clearly told you earlier “watch out for that tree.”
+    <t xml:space="preserve">[name="Old Craftsman"]  I’m not blind, which is why I clearly told you earlier 'watch out for that tree.'
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Today’s match is fully sponsored by the Roar Guards Company, as usual. The top ten competitors in the daily points rankings will each receive one limited edition weapon “Rioter” provided by the Roar Guards!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Today’s match is fully sponsored by the Roar Guards Company, as usual. The top ten competitors in the daily points rankings will each receive one limited edition weapon 'Rioter' provided by the Roar Guards!
 </t>
   </si>
   <si>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The reason? This competitor joining us for the first time has a very special “name”! She may look like a cute girl, but she comes from a very famous family! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The reason? This competitor joining us for the first time has a very special 'name'! She may look like a cute girl, but she comes from a very famous family! 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st01.xlsx
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:12 PM \ Clear     
+    <t xml:space="preserve">4:12 P.M. \ Clear     
 </t>
   </si>
   <si>
@@ -672,11 +672,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Oh... We still gonna make it to tonight’s party?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  It’ll be your fault if we don’t, V.
+    <t xml:space="preserve">[name="Old Knight"]  Oh... We still gonna make it to tonight's party?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  It'll be your fault if we don't, V.
 </t>
   </si>
   <si>
@@ -684,11 +684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  It’s you and that goddamned box of yours, all thirty kilos of it! You think you aren’t heavy enough, huh? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  These are tools for fixing Marcin’s stuff! That’s your excuse for crashing into a tree? 
+    <t xml:space="preserve">[name="Old Knight"]  It's you and that goddamned box of yours, all thirty kilos of it! You think you aren't heavy enough, huh? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  These are tools for fixing Marcin's stuff! That's your excuse for crashing into a tree? 
 </t>
   </si>
   <si>
@@ -696,19 +696,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I’m saying that your vision ain’t as good as it used to be...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Did you forget how I won that darts competition at the bar last week? My eyesight’s great as ever! You must be blind. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I’m not blind, which is why I clearly told you earlier 'watch out for that tree.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Why don’t I remember that?
+    <t xml:space="preserve">[name="Old Craftsman"]  I'm saying that your vision ain't as good as it used to be...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Did you forget how I won that darts competition at the bar last week? My eyesight's great as ever! You must be blind. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  I'm not blind, which is why I clearly told you earlier 'watch out for that tree.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Why don't I remember that?
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Well, who put Monster Siren’s new disc in?
+    <t xml:space="preserve">[name="Old Knight"]  Well, who put Monster Siren's new disc in?
 </t>
   </si>
   <si>
@@ -728,11 +728,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  It’s all V’s fault.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  I... You... Maria, don’t listen to his bullshit. This is absolutely not my fault!
+    <t xml:space="preserve">[name="Old Craftsman"]  It's all V's fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  I... You... Maria, don't listen to his bullshit. This is absolutely not my fault!
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Hear that? You’re disturbing the young lass, just keep quiet. 
+    <t xml:space="preserve">[name="Old Craftsman"]  Hear that? You're disturbing the young lass, just keep quiet. 
 </t>
   </si>
   <si>
@@ -748,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Circuit’s OK, but the engine is unresponsive. Hmm, this design is something from two generations ago? Do you start it like this...?
+    <t xml:space="preserve">[name="Maria"]  Circuit's OK, but the engine is unresponsive. Hmm, this design is something from two generations ago? Do you start it like this...?
 </t>
   </si>
   <si>
@@ -764,27 +764,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  That’s right! Just look at Maria! Why don’t you know even a lick of Originium Arts?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Who says I don’t know how to repair Originium devices?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  I’m talking about——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Maria! Move aside! I’m going to make this old geezer eat his words!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Ahaha...please don’t argue, you two...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Oh! There’s a reaction! 
+    <t xml:space="preserve">[name="Old Knight"]  That's right! Just look at Maria! Why don't you know even a lick of Originium Arts?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Who says I don't know how to repair Originium devices?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  I'm talking about——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Maria! Move aside! I'm going to make this old geezer eat his words!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Ahaha...please don't argue, you two...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Oh! There's a reaction! 
 </t>
   </si>
   <si>
@@ -792,15 +792,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Oho! The engine’s alive? This blessed sound of a rumbling engine!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Little Maria’s really getting better day by day. I suppose it’s just about time for a certain old fogey to retire too, eh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Hehe, it’s nothing like that. It’s all thanks to Master Kowal’s teachings.
+    <t xml:space="preserve">[name="Old Knight"]  Oho! The engine's alive? This blessed sound of a rumbling engine!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Little Maria's really getting better day by day. I suppose it's just about time for a certain old fogey to retire too, eh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Hehe, it's nothing like that. It's all thanks to Master Kowal's teachings.
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Of course——Wait, doesn’t the engine sound weird——
+    <t xml:space="preserve">[name="Old Craftsman"]  Of course——Wait, doesn't the engine sound weird——
 </t>
   </si>
   <si>
@@ -840,15 +840,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  I’d’ve gone even faster in my youth, you know! Also, I haven’t hit the accelerator yet! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Huh? Wait, we’re at 70mph now, slow——slow down! Hey, it’s 80mph now! We’re over the speed limit! We’re over it!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Can’t slow down! Told you, I’m not accelerating! 
+    <t xml:space="preserve">[name="Old Knight"]  I'd've gone even faster in my youth, you know! Also, I haven't hit the accelerator yet! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Huh? Wait, we're at 70mph now, slow——slow down! Hey, it's 80mph now! We're over the speed limit! We're over it!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Can't slow down! Told you, I'm not accelerating! 
 </t>
   </si>
   <si>
@@ -872,27 +872,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  I am Mob, Greatmouth Mob! And I’m honored to be commentating on today’s match! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Within this Roar Arena in the Kawalerielki Central Division, the knights’ glory will be put upon display once more!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Today’s match is fully sponsored by the Roar Guards Company, as usual. The top ten competitors in the daily points rankings will each receive one limited edition weapon 'Rioter' provided by the Roar Guards!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  That fancy toy will be impossible to sell... *sigh*, I’ll be damned if I can find a buyer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Nevermind, it’s from my paymaster after all... hmm?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Competition knights hailing from Kazimierz——no, from all over Terra! The corporations from the Kazimierz General Chamber of Commerce will all be paying close attention to today’s independent knight competitions! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  I am Mob, Greatmouth Mob! And I'm honored to be commentating on today's match! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Within this Roar Arena in the Kawalerielki Central Division, the knights' glory will be put upon display once more!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Today's match is fully sponsored by the Roar Guards Company, as usual. The top ten competitors in the daily points rankings will each receive one limited edition weapon 'Rioter' provided by the Roar Guards!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  That fancy toy will be impossible to sell... *sigh*, I'll be damned if I can find a buyer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  Nevermind, it's from my paymaster after all... hmm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Competition knights hailing from Kazimierz——no, from all over Terra! The corporations from the Kazimierz General Chamber of Commerce will all be paying close attention to today's independent knight competitions! 
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Of course! There’s also the highly anticipated one on one mixed sports! The one with the highest points, the greatest exposure! Any match in this category could get the attention of a Knightclub and catapult you to success!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Of course! There's also the highly anticipated one on one mixed sports! The one with the highest points, the greatest exposure! Any match in this category could get the attention of a Knightclub and catapult you to success!   
 </t>
   </si>
   <si>
@@ -920,15 +920,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Without further ado, let’s begin the first match of the day——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait... wait! This participant... She’s not just any old farmgirl! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  That’s right! I’m saying that the first match today will be the hottest news on the Kazimierz sports pages for weeks to come! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Without further ado, let's begin the first match of the day——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Wait... wait! This participant... She's not just any old farmgirl! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  That's right! I'm saying that the first match today will be the hottest news on the Kazimierz sports pages for weeks to come! 
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tourist"]  That’s right!
+    <t xml:space="preserve">[name="Tourist"]  That's right!
 </t>
   </si>
   <si>
@@ -960,15 +960,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Yes... The preliminaries have been going on for half a month, but it’s unusual to see independent knights who’ve just begun accumulating points, so we...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  This surname——It’s the Radiant Knight’s——?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Without further ado, let us welcome the first participant of today’s matches——
+    <t xml:space="preserve">[name="Corporate Employee"]  Yes... The preliminaries have been going on for half a month, but it's unusual to see independent knights who've just begun accumulating points, so we...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  This surname——It's the Radiant Knight's——?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Without further ado, let us welcome the first participant of today's matches——
 </t>
   </si>
   <si>
